--- a/Packages/cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91BB73F-61AC-744D-9AA6-FC239340F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE183B6-DEBD-1940-BE52-0C46ADA452CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="6240" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MapUnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="Map1" sheetId="1" r:id="rId1"/>
+    <sheet name="Map2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -158,6 +159,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务NPC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -252,10 +261,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -263,14 +281,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -590,219 +602,219 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7" t="s">
+      <c r="R4" s="9"/>
+      <c r="S4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="7" t="s">
+      <c r="V4" s="9"/>
+      <c r="W4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="6" t="s">
+      <c r="X4" s="10"/>
+      <c r="Y4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7" t="s">
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="6" t="s">
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="6" t="s">
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6" t="s">
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="6"/>
+      <c r="AJ4" s="9"/>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" s="3">
@@ -847,31 +859,31 @@
       <c r="O5" s="2">
         <v>10001</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="5">
         <v>0</v>
       </c>
       <c r="Q5" s="3">
         <v>10051</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="5">
         <v>500</v>
       </c>
       <c r="S5" s="2">
         <v>10061</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="5">
         <v>0</v>
       </c>
       <c r="U5" s="3">
         <v>10071</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="5">
         <v>500</v>
       </c>
       <c r="W5" s="3">
         <v>10081</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="5">
         <v>30000</v>
       </c>
       <c r="Y5" s="3">
@@ -883,138 +895,31 @@
       <c r="AA5" s="3">
         <v>10021</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="5">
         <v>100</v>
       </c>
       <c r="AC5" s="3">
         <v>1001</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="5">
         <v>100</v>
       </c>
       <c r="AE5" s="3">
         <v>10041</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="5">
         <v>100</v>
       </c>
       <c r="AG5" s="3">
         <v>1003</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="5">
         <v>100</v>
       </c>
       <c r="AI5" s="3">
         <v>1015</v>
       </c>
       <c r="AJ5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="B6" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1002</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J6" s="3">
-        <v>25200</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N6" s="3">
-        <v>270</v>
-      </c>
-      <c r="O6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R6" s="9">
-        <v>500</v>
-      </c>
-      <c r="S6" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V6" s="9">
-        <v>500</v>
-      </c>
-      <c r="W6" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X6" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>300003</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1037,19 +942,19 @@
       <c r="G7" s="3">
         <v>1010</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>21600</v>
       </c>
       <c r="I7" s="3">
         <v>1011</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>26800</v>
       </c>
       <c r="K7" s="2">
         <v>1012</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>-58702</v>
       </c>
       <c r="M7" s="2">
@@ -1061,31 +966,31 @@
       <c r="O7" s="2">
         <v>10001</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="5">
         <v>2000</v>
       </c>
       <c r="Q7" s="3">
         <v>10051</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="5">
         <v>500</v>
       </c>
       <c r="S7" s="2">
         <v>10061</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="5">
         <v>10000</v>
       </c>
       <c r="U7" s="3">
         <v>10071</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="5">
         <v>500</v>
       </c>
       <c r="W7" s="3">
         <v>10081</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="5">
         <v>30000</v>
       </c>
       <c r="Y7" s="3">
@@ -1097,25 +1002,25 @@
       <c r="AA7" s="3">
         <v>10021</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="5">
         <v>100</v>
       </c>
       <c r="AC7" s="3">
         <v>1001</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="5">
         <v>100</v>
       </c>
       <c r="AE7" s="3">
         <v>10041</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="5">
         <v>100</v>
       </c>
       <c r="AG7" s="3">
         <v>1003</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="5">
         <v>100</v>
       </c>
       <c r="AI7" s="3">
@@ -1144,19 +1049,19 @@
       <c r="G8" s="3">
         <v>1010</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>56000</v>
       </c>
       <c r="I8" s="3">
         <v>1011</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <v>25180</v>
       </c>
       <c r="K8" s="2">
         <v>1012</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="5">
         <v>-23633</v>
       </c>
       <c r="M8" s="2">
@@ -1168,31 +1073,31 @@
       <c r="O8" s="2">
         <v>10001</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="5">
         <v>2000</v>
       </c>
       <c r="Q8" s="3">
         <v>10051</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="5">
         <v>500</v>
       </c>
       <c r="S8" s="2">
         <v>10061</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="5">
         <v>10000</v>
       </c>
       <c r="U8" s="3">
         <v>10071</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="5">
         <v>500</v>
       </c>
       <c r="W8" s="3">
         <v>10081</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="5">
         <v>30000</v>
       </c>
       <c r="Y8" s="3">
@@ -1204,25 +1109,25 @@
       <c r="AA8" s="3">
         <v>10021</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="5">
         <v>100</v>
       </c>
       <c r="AC8" s="3">
         <v>1001</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="5">
         <v>100</v>
       </c>
       <c r="AE8" s="3">
         <v>10041</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="5">
         <v>100</v>
       </c>
       <c r="AG8" s="3">
         <v>1003</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AH8" s="5">
         <v>100</v>
       </c>
       <c r="AI8" s="3">
@@ -1251,19 +1156,19 @@
       <c r="G9" s="3">
         <v>1010</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>36310</v>
       </c>
       <c r="I9" s="3">
         <v>1011</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
         <v>25180</v>
       </c>
       <c r="K9" s="2">
         <v>1012</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="5">
         <v>-23634</v>
       </c>
       <c r="M9" s="2">
@@ -1275,31 +1180,31 @@
       <c r="O9" s="2">
         <v>10001</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="5">
         <v>2000</v>
       </c>
       <c r="Q9" s="3">
         <v>10051</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="5">
         <v>500</v>
       </c>
       <c r="S9" s="2">
         <v>10061</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="5">
         <v>10000</v>
       </c>
       <c r="U9" s="3">
         <v>10071</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="5">
         <v>500</v>
       </c>
       <c r="W9" s="3">
         <v>10081</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="5">
         <v>30000</v>
       </c>
       <c r="Y9" s="3">
@@ -1311,25 +1216,25 @@
       <c r="AA9" s="3">
         <v>10021</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="5">
         <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>1001</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="5">
         <v>100</v>
       </c>
       <c r="AE9" s="3">
         <v>10041</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="5">
         <v>100</v>
       </c>
       <c r="AG9" s="3">
         <v>1003</v>
       </c>
-      <c r="AH9" s="9">
+      <c r="AH9" s="5">
         <v>100</v>
       </c>
       <c r="AI9" s="3">
@@ -1358,19 +1263,19 @@
       <c r="G10" s="3">
         <v>1010</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>67170</v>
       </c>
       <c r="I10" s="3">
         <v>1011</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>25180</v>
       </c>
       <c r="K10" s="2">
         <v>1012</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="5">
         <v>-40495</v>
       </c>
       <c r="M10" s="2">
@@ -1382,31 +1287,31 @@
       <c r="O10" s="2">
         <v>10001</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="5">
         <v>2000</v>
       </c>
       <c r="Q10" s="3">
         <v>10051</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="5">
         <v>500</v>
       </c>
       <c r="S10" s="2">
         <v>10061</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="5">
         <v>10000</v>
       </c>
       <c r="U10" s="3">
         <v>10071</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="5">
         <v>500</v>
       </c>
       <c r="W10" s="3">
         <v>10081</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="5">
         <v>30000</v>
       </c>
       <c r="Y10" s="3">
@@ -1418,25 +1323,25 @@
       <c r="AA10" s="3">
         <v>10021</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="5">
         <v>100</v>
       </c>
       <c r="AC10" s="3">
         <v>1001</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="5">
         <v>100</v>
       </c>
       <c r="AE10" s="3">
         <v>10041</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="5">
         <v>100</v>
       </c>
       <c r="AG10" s="3">
         <v>1003</v>
       </c>
-      <c r="AH10" s="9">
+      <c r="AH10" s="5">
         <v>100</v>
       </c>
       <c r="AI10" s="3">
@@ -1465,19 +1370,19 @@
       <c r="G11" s="3">
         <v>1010</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>59600</v>
       </c>
       <c r="I11" s="3">
         <v>1011</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>25800</v>
       </c>
       <c r="K11" s="2">
         <v>1012</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="5">
         <v>-87866</v>
       </c>
       <c r="M11" s="2">
@@ -1489,31 +1394,31 @@
       <c r="O11" s="2">
         <v>10001</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="5">
         <v>2000</v>
       </c>
       <c r="Q11" s="3">
         <v>10051</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="5">
         <v>500</v>
       </c>
       <c r="S11" s="2">
         <v>10061</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="5">
         <v>10000</v>
       </c>
       <c r="U11" s="3">
         <v>10071</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="5">
         <v>500</v>
       </c>
       <c r="W11" s="3">
         <v>10081</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="5">
         <v>30000</v>
       </c>
       <c r="Y11" s="3">
@@ -1525,25 +1430,25 @@
       <c r="AA11" s="3">
         <v>10021</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="5">
         <v>100</v>
       </c>
       <c r="AC11" s="3">
         <v>1001</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="5">
         <v>100</v>
       </c>
       <c r="AE11" s="3">
         <v>10041</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AF11" s="5">
         <v>100</v>
       </c>
       <c r="AG11" s="3">
         <v>1003</v>
       </c>
-      <c r="AH11" s="9">
+      <c r="AH11" s="5">
         <v>100</v>
       </c>
       <c r="AI11" s="3">
@@ -1572,19 +1477,19 @@
       <c r="G12" s="3">
         <v>1010</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="5">
         <v>58740</v>
       </c>
       <c r="I12" s="3">
         <v>1011</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="5">
         <v>28100</v>
       </c>
       <c r="K12" s="2">
         <v>1012</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="5">
         <v>-141407</v>
       </c>
       <c r="M12" s="2">
@@ -1596,31 +1501,31 @@
       <c r="O12" s="2">
         <v>10001</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="5">
         <v>2000</v>
       </c>
       <c r="Q12" s="3">
         <v>10051</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="5">
         <v>2000</v>
       </c>
       <c r="S12" s="2">
         <v>10061</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="5">
         <v>10000</v>
       </c>
       <c r="U12" s="3">
         <v>10071</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="5">
         <v>500</v>
       </c>
       <c r="W12" s="3">
         <v>10081</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="5">
         <v>30000</v>
       </c>
       <c r="Y12" s="3">
@@ -1632,25 +1537,25 @@
       <c r="AA12" s="3">
         <v>10021</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="5">
         <v>100</v>
       </c>
       <c r="AC12" s="3">
         <v>1001</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="5">
         <v>100</v>
       </c>
       <c r="AE12" s="3">
         <v>10041</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="5">
         <v>100</v>
       </c>
       <c r="AG12" s="3">
         <v>1003</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="5">
         <v>100</v>
       </c>
       <c r="AI12" s="3">
@@ -1679,19 +1584,19 @@
       <c r="G13" s="3">
         <v>1010</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>58740</v>
       </c>
       <c r="I13" s="3">
         <v>1011</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
         <v>28100</v>
       </c>
       <c r="K13" s="2">
         <v>1012</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="5">
         <v>-130408</v>
       </c>
       <c r="M13" s="2">
@@ -1703,31 +1608,31 @@
       <c r="O13" s="2">
         <v>10001</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="5">
         <v>2000</v>
       </c>
       <c r="Q13" s="3">
         <v>10051</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="5">
         <v>2000</v>
       </c>
       <c r="S13" s="2">
         <v>10061</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="5">
         <v>10000</v>
       </c>
       <c r="U13" s="3">
         <v>10071</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="5">
         <v>500</v>
       </c>
       <c r="W13" s="3">
         <v>10081</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="5">
         <v>30000</v>
       </c>
       <c r="Y13" s="3">
@@ -1739,25 +1644,25 @@
       <c r="AA13" s="3">
         <v>10021</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="5">
         <v>100</v>
       </c>
       <c r="AC13" s="3">
         <v>1001</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AD13" s="5">
         <v>100</v>
       </c>
       <c r="AE13" s="3">
         <v>10041</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AF13" s="5">
         <v>100</v>
       </c>
       <c r="AG13" s="3">
         <v>1003</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AH13" s="5">
         <v>100</v>
       </c>
       <c r="AI13" s="3">
@@ -1786,19 +1691,19 @@
       <c r="G14" s="3">
         <v>1010</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>67480</v>
       </c>
       <c r="I14" s="3">
         <v>1011</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="5">
         <v>28850</v>
       </c>
       <c r="K14" s="2">
         <v>1012</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="5">
         <v>-130409</v>
       </c>
       <c r="M14" s="2">
@@ -1810,31 +1715,31 @@
       <c r="O14" s="2">
         <v>10001</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="5">
         <v>2000</v>
       </c>
       <c r="Q14" s="3">
         <v>10051</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="5">
         <v>2000</v>
       </c>
       <c r="S14" s="2">
         <v>10061</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="5">
         <v>10000</v>
       </c>
       <c r="U14" s="3">
         <v>10071</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="5">
         <v>500</v>
       </c>
       <c r="W14" s="3">
         <v>10081</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="5">
         <v>30000</v>
       </c>
       <c r="Y14" s="3">
@@ -1846,25 +1751,25 @@
       <c r="AA14" s="3">
         <v>10021</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="5">
         <v>100</v>
       </c>
       <c r="AC14" s="3">
         <v>1001</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="5">
         <v>100</v>
       </c>
       <c r="AE14" s="3">
         <v>10041</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AF14" s="5">
         <v>100</v>
       </c>
       <c r="AG14" s="3">
         <v>1003</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AH14" s="5">
         <v>100</v>
       </c>
       <c r="AI14" s="3">
@@ -1893,19 +1798,19 @@
       <c r="G15" s="3">
         <v>1010</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>67480</v>
       </c>
       <c r="I15" s="3">
         <v>1011</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="5">
         <v>27510</v>
       </c>
       <c r="K15" s="2">
         <v>1012</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="5">
         <v>-34791</v>
       </c>
       <c r="M15" s="2">
@@ -1917,31 +1822,31 @@
       <c r="O15" s="2">
         <v>10001</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="5">
         <v>2000</v>
       </c>
       <c r="Q15" s="3">
         <v>10051</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="5">
         <v>2000</v>
       </c>
       <c r="S15" s="2">
         <v>10061</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="5">
         <v>10000</v>
       </c>
       <c r="U15" s="3">
         <v>10071</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="5">
         <v>500</v>
       </c>
       <c r="W15" s="3">
         <v>10081</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="5">
         <v>30000</v>
       </c>
       <c r="Y15" s="3">
@@ -1953,25 +1858,25 @@
       <c r="AA15" s="3">
         <v>10021</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB15" s="5">
         <v>100</v>
       </c>
       <c r="AC15" s="3">
         <v>1001</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="5">
         <v>100</v>
       </c>
       <c r="AE15" s="3">
         <v>10041</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AF15" s="5">
         <v>100</v>
       </c>
       <c r="AG15" s="3">
         <v>1003</v>
       </c>
-      <c r="AH15" s="9">
+      <c r="AH15" s="5">
         <v>100</v>
       </c>
       <c r="AI15" s="3">
@@ -2000,19 +1905,19 @@
       <c r="G16" s="3">
         <v>1010</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>67480</v>
       </c>
       <c r="I16" s="3">
         <v>1011</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="5">
         <v>25900</v>
       </c>
       <c r="K16" s="2">
         <v>1012</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="5">
         <v>-93811</v>
       </c>
       <c r="M16" s="2">
@@ -2024,31 +1929,31 @@
       <c r="O16" s="2">
         <v>10001</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="5">
         <v>2000</v>
       </c>
       <c r="Q16" s="3">
         <v>10051</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="5">
         <v>2000</v>
       </c>
       <c r="S16" s="2">
         <v>10061</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="5">
         <v>10000</v>
       </c>
       <c r="U16" s="3">
         <v>10071</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="5">
         <v>500</v>
       </c>
       <c r="W16" s="3">
         <v>10081</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="5">
         <v>30000</v>
       </c>
       <c r="Y16" s="3">
@@ -2060,25 +1965,25 @@
       <c r="AA16" s="3">
         <v>10021</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="5">
         <v>100</v>
       </c>
       <c r="AC16" s="3">
         <v>1001</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="5">
         <v>100</v>
       </c>
       <c r="AE16" s="3">
         <v>10041</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AF16" s="5">
         <v>100</v>
       </c>
       <c r="AG16" s="3">
         <v>1003</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AH16" s="5">
         <v>100</v>
       </c>
       <c r="AI16" s="3">
@@ -2089,1154 +1994,81 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="3">
-        <v>10014</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H17" s="9">
-        <v>21600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J17" s="9">
-        <v>26800</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L17" s="9">
-        <v>-58702</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P17" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R17" s="9">
-        <v>500</v>
-      </c>
-      <c r="S17" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T17" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V17" s="9">
-        <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X17" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>2</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="3">
-        <v>10015</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H18" s="9">
-        <v>56000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J18" s="9">
-        <v>25180</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L18" s="9">
-        <v>-23633</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P18" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R18" s="9">
-        <v>500</v>
-      </c>
-      <c r="S18" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T18" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V18" s="9">
-        <v>500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X18" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG18" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI18" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:36">
-      <c r="B19" s="3">
-        <v>10016</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H19" s="9">
-        <v>36310</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J19" s="9">
-        <v>25180</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-23634</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P19" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R19" s="9">
-        <v>500</v>
-      </c>
-      <c r="S19" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T19" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U19" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V19" s="9">
-        <v>500</v>
-      </c>
-      <c r="W19" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X19" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD19" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF19" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH19" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI19" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:36">
-      <c r="B20" s="3">
-        <v>10017</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H20" s="9">
-        <v>67170</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J20" s="9">
-        <v>25180</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-40495</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P20" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R20" s="9">
-        <v>500</v>
-      </c>
-      <c r="S20" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T20" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V20" s="9">
-        <v>500</v>
-      </c>
-      <c r="W20" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X20" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB20" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD20" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF20" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH20" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:36">
-      <c r="B21" s="3">
-        <v>10018</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H21" s="9">
-        <v>59600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J21" s="9">
-        <v>25800</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L21" s="9">
-        <v>-87866</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P21" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R21" s="9">
-        <v>500</v>
-      </c>
-      <c r="S21" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T21" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U21" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V21" s="9">
-        <v>500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X21" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB21" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD21" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF21" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH21" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:36">
-      <c r="B22" s="3">
-        <v>10019</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H22" s="9">
-        <v>58740</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J22" s="9">
-        <v>28100</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-141407</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P22" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R22" s="9">
-        <v>2000</v>
-      </c>
-      <c r="S22" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T22" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V22" s="9">
-        <v>500</v>
-      </c>
-      <c r="W22" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X22" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD22" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF22" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH22" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:36">
-      <c r="B23" s="3">
-        <v>10020</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H23" s="9">
-        <v>58740</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J23" s="9">
-        <v>28100</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L23" s="9">
-        <v>-130408</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P23" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R23" s="9">
-        <v>2000</v>
-      </c>
-      <c r="S23" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T23" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V23" s="9">
-        <v>500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X23" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB23" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD23" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF23" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH23" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:36">
-      <c r="B24" s="3">
-        <v>10021</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H24" s="9">
-        <v>67480</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J24" s="9">
-        <v>28850</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L24" s="9">
-        <v>-130409</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P24" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R24" s="9">
-        <v>2000</v>
-      </c>
-      <c r="S24" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T24" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V24" s="9">
-        <v>500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X24" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:36">
-      <c r="B25" s="3">
-        <v>10022</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H25" s="9">
-        <v>67480</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J25" s="9">
-        <v>27510</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L25" s="9">
-        <v>-34791</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P25" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R25" s="9">
-        <v>2000</v>
-      </c>
-      <c r="S25" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T25" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U25" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V25" s="9">
-        <v>500</v>
-      </c>
-      <c r="W25" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X25" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD25" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF25" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH25" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:36">
-      <c r="B26" s="3">
-        <v>10023</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1010</v>
-      </c>
-      <c r="H26" s="9">
-        <v>67480</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1011</v>
-      </c>
-      <c r="J26" s="9">
-        <v>25900</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1012</v>
-      </c>
-      <c r="L26" s="9">
-        <v>-93811</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>10001</v>
-      </c>
-      <c r="P26" s="9">
-        <v>2000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>10051</v>
-      </c>
-      <c r="R26" s="9">
-        <v>2000</v>
-      </c>
-      <c r="S26" s="2">
-        <v>10061</v>
-      </c>
-      <c r="T26" s="9">
-        <v>10000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>10071</v>
-      </c>
-      <c r="V26" s="9">
-        <v>500</v>
-      </c>
-      <c r="W26" s="3">
-        <v>10081</v>
-      </c>
-      <c r="X26" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>300000</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>10021</v>
-      </c>
-      <c r="AB26" s="9">
-        <v>100</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AD26" s="9">
-        <v>100</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>10041</v>
-      </c>
-      <c r="AF26" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>1003</v>
-      </c>
-      <c r="AH26" s="9">
-        <v>100</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>1015</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:36">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-    </row>
-    <row r="28" spans="2:36">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="M4:N4"/>
@@ -3252,6 +2084,1612 @@
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B206C8A-C7E3-014D-81BB-4A66DD302239}">
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" customWidth="1"/>
+    <col min="23" max="24" width="6.1640625" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" customWidth="1"/>
+    <col min="26" max="26" width="7.1640625" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" customWidth="1"/>
+    <col min="28" max="30" width="5.1640625" customWidth="1"/>
+    <col min="31" max="31" width="6.1640625" customWidth="1"/>
+    <col min="32" max="36" width="5.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="9"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="B5" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H5" s="5">
+        <v>21600</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J5" s="5">
+        <v>26800</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L5" s="5">
+        <v>-58702</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R5" s="5">
+        <v>500</v>
+      </c>
+      <c r="S5" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U5" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V5" s="5">
+        <v>500</v>
+      </c>
+      <c r="W5" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X5" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="B6" s="3">
+        <v>10015</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H6" s="5">
+        <v>56000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J6" s="5">
+        <v>25180</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-23633</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R6" s="5">
+        <v>500</v>
+      </c>
+      <c r="S6" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U6" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V6" s="5">
+        <v>500</v>
+      </c>
+      <c r="W6" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X6" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="B7" s="3">
+        <v>10016</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H7" s="5">
+        <v>36310</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J7" s="5">
+        <v>25180</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-23634</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R7" s="5">
+        <v>500</v>
+      </c>
+      <c r="S7" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U7" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V7" s="5">
+        <v>500</v>
+      </c>
+      <c r="W7" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X7" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="B8" s="3">
+        <v>10017</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H8" s="5">
+        <v>67170</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J8" s="5">
+        <v>25180</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-40495</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R8" s="5">
+        <v>500</v>
+      </c>
+      <c r="S8" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U8" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V8" s="5">
+        <v>500</v>
+      </c>
+      <c r="W8" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X8" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="B9" s="3">
+        <v>10018</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H9" s="5">
+        <v>59600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J9" s="5">
+        <v>25800</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-87866</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R9" s="5">
+        <v>500</v>
+      </c>
+      <c r="S9" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U9" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V9" s="5">
+        <v>500</v>
+      </c>
+      <c r="W9" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X9" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="B10" s="3">
+        <v>10019</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H10" s="5">
+        <v>58740</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J10" s="5">
+        <v>28100</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-141407</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U10" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V10" s="5">
+        <v>500</v>
+      </c>
+      <c r="W10" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X10" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="B11" s="3">
+        <v>10020</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H11" s="5">
+        <v>58740</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J11" s="5">
+        <v>28100</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-130408</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U11" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V11" s="5">
+        <v>500</v>
+      </c>
+      <c r="W11" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X11" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="B12" s="3">
+        <v>10021</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H12" s="5">
+        <v>67480</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J12" s="5">
+        <v>28850</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-130409</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S12" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U12" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V12" s="5">
+        <v>500</v>
+      </c>
+      <c r="W12" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X12" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="B13" s="3">
+        <v>10022</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H13" s="5">
+        <v>67480</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J13" s="5">
+        <v>27510</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-34791</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S13" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U13" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V13" s="5">
+        <v>500</v>
+      </c>
+      <c r="W13" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X13" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="B14" s="3">
+        <v>10023</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H14" s="5">
+        <v>67480</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J14" s="5">
+        <v>25900</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-93811</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S14" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T14" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U14" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V14" s="5">
+        <v>500</v>
+      </c>
+      <c r="W14" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X14" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="B15" s="3">
+        <v>10024</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1005</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H15" s="11">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S15" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="U15" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V15" s="5">
+        <v>500</v>
+      </c>
+      <c r="W15" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X15" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="B16" s="3">
+        <v>10025</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J16" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N16" s="3">
+        <v>270</v>
+      </c>
+      <c r="O16" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R16" s="5">
+        <v>500</v>
+      </c>
+      <c r="S16" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V16" s="5">
+        <v>500</v>
+      </c>
+      <c r="W16" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X16" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>300003</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="G2:AJ2"/>
+    <mergeCell ref="G3:AJ3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE183B6-DEBD-1940-BE52-0C46ADA452CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3296F4-B3B5-C84C-9569-4B00FC72E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -166,7 +166,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>任务NPC</t>
+    <t>野猪任务NPC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猪任务完成NPC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -269,20 +273,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,38 +614,38 @@
         <v>30</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
@@ -661,38 +662,38 @@
         <v>31</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
@@ -703,38 +704,38 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -755,66 +756,66 @@
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="T4" s="10"/>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="9"/>
+      <c r="V4" s="7"/>
       <c r="W4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="X4" s="10"/>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="7"/>
       <c r="AA4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="9"/>
+      <c r="AD4" s="7"/>
       <c r="AE4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="9" t="s">
+      <c r="AG4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9" t="s">
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="9"/>
+      <c r="AJ4" s="7"/>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" s="3">
@@ -2069,6 +2070,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="M4:N4"/>
@@ -2085,8 +2088,6 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B206C8A-C7E3-014D-81BB-4A66DD302239}">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2109,7 +2110,7 @@
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" customWidth="1"/>
@@ -2150,38 +2151,38 @@
         <v>30</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
@@ -2198,38 +2199,38 @@
         <v>31</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
@@ -2240,38 +2241,38 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -2292,66 +2293,66 @@
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="T4" s="10"/>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="9"/>
+      <c r="V4" s="7"/>
       <c r="W4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="X4" s="10"/>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="7"/>
       <c r="AA4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="9"/>
+      <c r="AD4" s="7"/>
       <c r="AE4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="9" t="s">
+      <c r="AG4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9" t="s">
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="9"/>
+      <c r="AJ4" s="7"/>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" s="3">
@@ -3442,7 +3443,7 @@
       <c r="G15" s="3">
         <v>1010</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
       <c r="I15" s="3">
@@ -3454,7 +3455,7 @@
       <c r="K15" s="2">
         <v>1012</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="2">
@@ -3531,22 +3532,22 @@
         <v>10025</v>
       </c>
       <c r="C16" s="3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3">
         <v>1010</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="I16" s="3">
         <v>1011</v>
@@ -3564,25 +3565,25 @@
         <v>1014</v>
       </c>
       <c r="N16" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>10001</v>
       </c>
       <c r="P16" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Q16" s="3">
         <v>10051</v>
       </c>
       <c r="R16" s="5">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="S16" s="2">
         <v>10061</v>
       </c>
       <c r="T16" s="5">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="U16" s="3">
         <v>10071</v>
@@ -3596,12 +3597,8 @@
       <c r="X16" s="5">
         <v>30000</v>
       </c>
-      <c r="Y16" s="3">
-        <v>1009</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>300003</v>
-      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="3">
         <v>10021</v>
       </c>
@@ -3634,44 +3631,153 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
+      <c r="B17" s="3">
+        <v>10026</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1010</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N17" s="3">
+        <v>270</v>
+      </c>
+      <c r="O17" s="2">
+        <v>10001</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>10051</v>
+      </c>
+      <c r="R17" s="5">
+        <v>500</v>
+      </c>
+      <c r="S17" s="2">
+        <v>10061</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>10071</v>
+      </c>
+      <c r="V17" s="5">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
+        <v>10081</v>
+      </c>
+      <c r="X17" s="5">
+        <v>30000</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>300003</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>10021</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1001</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>10041</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>1003</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="G2:AJ2"/>
     <mergeCell ref="G3:AJ3"/>
@@ -3688,8 +3794,6 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
